--- a/frontend/e2e/files/election_e2e.xlsx
+++ b/frontend/e2e/files/election_e2e.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayyil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayyil\workspace\election\election\frontend\e2e\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9970AB-F2F2-4AE9-894F-CFD58E85F041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9ECF7-A15B-45CB-B1CB-70A2D0032331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{879F85C7-4E5D-984A-8EA2-E8D8632DF256}"/>
+    <workbookView xWindow="7200" yWindow="105" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{879F85C7-4E5D-984A-8EA2-E8D8632DF256}"/>
   </bookViews>
   <sheets>
     <sheet name="Wahlen" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Wahl</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Mtr-Nr.</t>
   </si>
   <si>
-    <t>Studiengang</t>
-  </si>
-  <si>
     <t>bis</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
   </si>
   <si>
     <t>Wahl Kennung</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Zugelassen?</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>u788</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,7 @@
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="18">
@@ -641,7 +650,7 @@
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="18">
@@ -688,30 +697,30 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -726,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -761,44 +770,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -808,54 +817,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978550DC-8168-BA43-9025-C43B8E747870}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="6"/>
     <col min="2" max="2" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="10.75" style="6"/>
+    <col min="3" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="10.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -864,32 +876,35 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>45912</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6"/>
+        <v>26</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
